--- a/URS/DbLayouts/L2-業務作業/ClImm.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClImm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="7812"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -244,27 +244,6 @@
     <t>設定金額</t>
   </si>
   <si>
-    <t>設定順位(1~4)</t>
-  </si>
-  <si>
-    <t>前一順位債權人</t>
-  </si>
-  <si>
-    <t>前一順位金額</t>
-  </si>
-  <si>
-    <t>前二順位債權人</t>
-  </si>
-  <si>
-    <t>前二順位金額</t>
-  </si>
-  <si>
-    <t>前三順位債權人</t>
-  </si>
-  <si>
-    <t>前三順位金額</t>
-  </si>
-  <si>
     <t>擔保品代號1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -452,30 +431,6 @@
   </si>
   <si>
     <t>SettingSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstCreditor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecondAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecondCreditor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThirdAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThirdCreditor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -565,6 +520,10 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定順位(1~9)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1103,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1126,7 +1085,7 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>31</v>
@@ -1139,7 +1098,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>24</v>
@@ -1154,10 +1113,10 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1169,10 +1128,10 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1184,7 +1143,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -1197,7 +1156,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1243,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>19</v>
@@ -1256,7 +1215,7 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1264,20 +1223,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E10" s="18">
         <v>2</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>32</v>
@@ -1304,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>33</v>
@@ -1325,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>34</v>
@@ -1346,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>35</v>
@@ -1367,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>36</v>
@@ -1388,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>37</v>
@@ -1401,7 +1360,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1409,10 +1368,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>3</v>
@@ -1422,7 +1381,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1430,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>38</v>
@@ -1443,7 +1402,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1451,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>39</v>
@@ -1464,7 +1423,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1472,10 +1431,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>3</v>
@@ -1485,7 +1444,7 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1493,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>40</v>
@@ -1514,10 +1473,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>3</v>
@@ -1533,13 +1492,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E23" s="18">
         <v>8</v>
@@ -1552,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>42</v>
@@ -1565,7 +1524,7 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1573,7 +1532,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>21</v>
@@ -1594,7 +1553,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>43</v>
@@ -1615,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>44</v>
@@ -1636,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>46</v>
@@ -1655,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>47</v>
@@ -1668,7 +1627,7 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1676,13 +1635,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E30" s="18">
         <v>8</v>
@@ -1695,13 +1654,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E31" s="18">
         <v>20</v>
@@ -1714,13 +1673,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E32" s="18">
         <v>8</v>
@@ -1733,13 +1692,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E33" s="18">
         <v>20</v>
@@ -1752,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>3</v>
@@ -1765,7 +1724,7 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1773,10 +1732,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>3</v>
@@ -1786,7 +1745,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1794,13 +1753,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E36" s="18">
         <v>8</v>
@@ -1813,7 +1772,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>49</v>
@@ -1834,13 +1793,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E38" s="18">
         <v>8</v>
@@ -1853,10 +1812,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>3</v>
@@ -1872,17 +1831,15 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="18">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
@@ -1891,20 +1848,18 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E41" s="18">
-        <v>16</v>
-      </c>
-      <c r="F41" s="18">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1912,17 +1867,15 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="18">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
     </row>
@@ -1931,131 +1884,71 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E43" s="18">
-        <v>16</v>
-      </c>
-      <c r="F43" s="18">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
-        <v>36</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="18">
-        <v>10</v>
-      </c>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
-        <v>37</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="18">
-        <v>16</v>
-      </c>
-      <c r="F45" s="18">
-        <v>2</v>
-      </c>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
-        <v>38</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
-        <v>39</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="18">
-        <v>6</v>
-      </c>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
-        <v>40</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
-        <v>41</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="18">
-        <v>6</v>
-      </c>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
@@ -2166,60 +2059,6 @@
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2267,26 +2106,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
